--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/glb_total_co2_hist.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/glb_total_co2_hist.xlsx
@@ -1590,607 +1590,607 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>473</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>1569</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4204</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>6859</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>8658</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>15504</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>70684</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>61469</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>68649</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>80381</v>
+        <v>35</v>
       </c>
       <c r="L2">
-        <v>116605</v>
+        <v>119</v>
       </c>
       <c r="M2">
-        <v>151182</v>
+        <v>359</v>
       </c>
       <c r="N2">
-        <v>198965</v>
+        <v>1578</v>
       </c>
       <c r="O2">
-        <v>255867</v>
+        <v>6880</v>
       </c>
       <c r="P2">
-        <v>331523</v>
+        <v>26703</v>
       </c>
       <c r="Q2">
-        <v>338912</v>
+        <v>71996</v>
       </c>
       <c r="R2">
-        <v>469152</v>
+        <v>194110</v>
       </c>
       <c r="S2">
-        <v>557593</v>
+        <v>330333</v>
       </c>
       <c r="T2">
-        <v>647818</v>
+        <v>683278</v>
       </c>
       <c r="U2">
-        <v>770986</v>
+        <v>584998</v>
       </c>
       <c r="V2">
-        <v>775643</v>
+        <v>632617</v>
       </c>
       <c r="W2">
-        <v>1074231</v>
+        <v>520968</v>
       </c>
       <c r="X2">
-        <v>1249192</v>
+        <v>589150</v>
       </c>
       <c r="Y2">
-        <v>1440631</v>
+        <v>562858</v>
       </c>
       <c r="Z2">
-        <v>1619370</v>
+        <v>570742</v>
       </c>
       <c r="AA2">
-        <v>1567020</v>
+        <v>478181</v>
       </c>
       <c r="AB2">
-        <v>2000143</v>
+        <v>628178</v>
       </c>
       <c r="AC2">
-        <v>2197605</v>
+        <v>617007</v>
       </c>
       <c r="AD2">
-        <v>2316281</v>
+        <v>737470</v>
       </c>
       <c r="AE2">
-        <v>2373243</v>
+        <v>802470</v>
       </c>
       <c r="AF2">
-        <v>2424824</v>
+        <v>918438</v>
       </c>
       <c r="AG2">
-        <v>2104406</v>
+        <v>913594</v>
       </c>
       <c r="AH2">
-        <v>2496410</v>
+        <v>1269198</v>
       </c>
       <c r="AI2">
-        <v>2534562</v>
+        <v>1426118</v>
       </c>
       <c r="AJ2">
-        <v>2533627</v>
+        <v>1811421</v>
       </c>
       <c r="AK2">
-        <v>2530952</v>
+        <v>1772527</v>
       </c>
       <c r="AL2">
-        <v>2210306</v>
+        <v>1730436</v>
       </c>
       <c r="AM2">
-        <v>2515728</v>
+        <v>2339554</v>
       </c>
       <c r="AN2">
-        <v>2474043</v>
+        <v>2618571</v>
       </c>
       <c r="AO2">
-        <v>2384461</v>
+        <v>2694682</v>
       </c>
       <c r="AP2">
-        <v>2396718</v>
+        <v>2791946</v>
       </c>
       <c r="AQ2">
-        <v>2025835</v>
+        <v>2424522</v>
       </c>
       <c r="AR2">
-        <v>2336045</v>
+        <v>3088485</v>
       </c>
       <c r="AS2">
-        <v>2313055</v>
+        <v>2966232</v>
       </c>
       <c r="AT2">
-        <v>2277423</v>
+        <v>2938927</v>
       </c>
       <c r="AU2">
-        <v>2362265</v>
+        <v>3371277</v>
       </c>
       <c r="AV2">
-        <v>2388868</v>
+        <v>3327712</v>
       </c>
       <c r="AW2">
-        <v>2052951</v>
+        <v>2463675</v>
       </c>
       <c r="AX2">
-        <v>2422869</v>
+        <v>2813935</v>
       </c>
       <c r="AY2">
-        <v>2460274</v>
+        <v>2763363</v>
       </c>
       <c r="AZ2">
-        <v>2529663</v>
+        <v>2851502</v>
       </c>
       <c r="BA2">
-        <v>2557652</v>
+        <v>2681036</v>
       </c>
       <c r="BB2">
-        <v>2224683</v>
+        <v>2129474</v>
       </c>
       <c r="BC2">
-        <v>2645724</v>
+        <v>2374464</v>
       </c>
       <c r="BD2">
-        <v>2719783</v>
+        <v>2279663</v>
       </c>
       <c r="BE2">
-        <v>2814086</v>
+        <v>2223279</v>
       </c>
       <c r="BF2">
-        <v>2845276</v>
+        <v>2076020</v>
       </c>
       <c r="BG2">
-        <v>2488179</v>
+        <v>1758896</v>
       </c>
       <c r="BH2">
-        <v>2907318</v>
+        <v>2013030</v>
       </c>
       <c r="BI2">
-        <v>2910634</v>
+        <v>2334690</v>
       </c>
       <c r="BJ2">
-        <v>2951193</v>
+        <v>2233886</v>
       </c>
       <c r="BK2">
-        <v>2933693</v>
+        <v>2475050</v>
       </c>
       <c r="BL2">
-        <v>2962723</v>
+        <v>2200346</v>
       </c>
       <c r="BM2">
-        <v>2500426</v>
+        <v>1827090</v>
       </c>
       <c r="BN2">
-        <v>2900457</v>
+        <v>2174057</v>
       </c>
       <c r="BO2">
-        <v>2871348</v>
+        <v>2153377</v>
       </c>
       <c r="BP2">
-        <v>2758461</v>
+        <v>1930145</v>
       </c>
       <c r="BQ2">
-        <v>2675355</v>
+        <v>2060998</v>
       </c>
       <c r="BR2">
-        <v>2177285</v>
+        <v>1970821</v>
       </c>
       <c r="BS2">
-        <v>2479151</v>
+        <v>2413835</v>
       </c>
       <c r="BT2">
-        <v>2342155</v>
+        <v>2406049</v>
       </c>
       <c r="BU2">
-        <v>2193691</v>
+        <v>2403755</v>
       </c>
       <c r="BV2">
-        <v>2088219</v>
+        <v>2431340</v>
       </c>
       <c r="BW2">
-        <v>1687547</v>
+        <v>1991308</v>
       </c>
       <c r="BX2">
-        <v>1902378</v>
+        <v>2697327</v>
       </c>
       <c r="BY2">
-        <v>1767930</v>
+        <v>2734742</v>
       </c>
       <c r="BZ2">
-        <v>1661669</v>
+        <v>2517036</v>
       </c>
       <c r="CA2">
-        <v>1558417</v>
+        <v>2551846</v>
       </c>
       <c r="CB2">
-        <v>1468494</v>
+        <v>2633450</v>
       </c>
       <c r="CC2">
-        <v>1173944</v>
+        <v>1988280</v>
       </c>
       <c r="CD2">
-        <v>1313658</v>
+        <v>2300265</v>
       </c>
       <c r="CE2">
-        <v>1217538</v>
+        <v>2297758</v>
       </c>
       <c r="CF2">
-        <v>1165585</v>
+        <v>2192592</v>
       </c>
       <c r="CG2">
-        <v>1054552</v>
+        <v>2154272</v>
       </c>
       <c r="CH2">
-        <v>840095</v>
+        <v>1736120</v>
       </c>
       <c r="CI2">
-        <v>920722</v>
+        <v>2492546</v>
       </c>
       <c r="CJ2">
-        <v>847530</v>
+        <v>2193562</v>
       </c>
       <c r="CK2">
-        <v>788712</v>
+        <v>1959028</v>
       </c>
       <c r="CL2">
-        <v>740189</v>
+        <v>1780209</v>
       </c>
       <c r="CM2">
-        <v>583165</v>
+        <v>1390697</v>
       </c>
       <c r="CN2">
-        <v>637039</v>
+        <v>1591125</v>
       </c>
       <c r="CO2">
-        <v>588054</v>
+        <v>1450694</v>
       </c>
       <c r="CP2">
-        <v>544117</v>
+        <v>1359593</v>
       </c>
       <c r="CQ2">
-        <v>505873</v>
+        <v>1226650</v>
       </c>
       <c r="CR2">
-        <v>467038</v>
+        <v>1125656</v>
       </c>
       <c r="CS2">
-        <v>374841</v>
+        <v>864247</v>
       </c>
       <c r="CT2">
-        <v>406169</v>
+        <v>935010</v>
       </c>
       <c r="CU2">
-        <v>375700</v>
+        <v>884203</v>
       </c>
       <c r="CV2">
-        <v>347776</v>
+        <v>739642</v>
       </c>
       <c r="CW2">
-        <v>321361</v>
+        <v>627534</v>
       </c>
       <c r="CX2">
-        <v>254859</v>
+        <v>467958</v>
       </c>
       <c r="CY2">
-        <v>276500</v>
+        <v>472500</v>
       </c>
       <c r="CZ2">
-        <v>255517</v>
+        <v>398683</v>
       </c>
       <c r="DA2">
-        <v>235477</v>
+        <v>336519</v>
       </c>
       <c r="DB2">
-        <v>218135</v>
+        <v>283106</v>
       </c>
       <c r="DC2">
-        <v>173407</v>
+        <v>200837</v>
       </c>
       <c r="DD2">
-        <v>187265</v>
+        <v>196548</v>
       </c>
       <c r="DE2">
-        <v>172549</v>
+        <v>160723</v>
       </c>
       <c r="DF2">
-        <v>159046</v>
+        <v>128836</v>
       </c>
       <c r="DG2">
-        <v>146106</v>
+        <v>103263</v>
       </c>
       <c r="DH2">
-        <v>116024</v>
+        <v>71910</v>
       </c>
       <c r="DI2">
-        <v>125064</v>
+        <v>67478</v>
       </c>
       <c r="DJ2">
-        <v>115189</v>
+        <v>53824</v>
       </c>
       <c r="DK2">
-        <v>105986</v>
+        <v>43843</v>
       </c>
       <c r="DL2">
-        <v>97728</v>
+        <v>34840</v>
       </c>
       <c r="DM2">
-        <v>89359</v>
+        <v>29025</v>
       </c>
       <c r="DN2">
-        <v>71328</v>
+        <v>20845</v>
       </c>
       <c r="DO2">
-        <v>76789</v>
+        <v>23374</v>
       </c>
       <c r="DP2">
-        <v>71008</v>
+        <v>19317</v>
       </c>
       <c r="DQ2">
-        <v>65320</v>
+        <v>17798</v>
       </c>
       <c r="DR2">
-        <v>59790</v>
+        <v>16072</v>
       </c>
       <c r="DS2">
-        <v>47544</v>
+        <v>12212</v>
       </c>
       <c r="DT2">
-        <v>51418</v>
+        <v>12579</v>
       </c>
       <c r="DU2">
-        <v>47482</v>
+        <v>10352</v>
       </c>
       <c r="DV2">
-        <v>43785</v>
+        <v>7824</v>
       </c>
       <c r="DW2">
-        <v>40257</v>
+        <v>5863</v>
       </c>
       <c r="DX2">
-        <v>31960</v>
+        <v>3643</v>
       </c>
       <c r="DY2">
-        <v>34934</v>
+        <v>3163</v>
       </c>
       <c r="DZ2">
-        <v>32061</v>
+        <v>2184</v>
       </c>
       <c r="EA2">
-        <v>29650</v>
+        <v>1525</v>
       </c>
       <c r="EB2">
-        <v>27033</v>
+        <v>1153</v>
       </c>
       <c r="EC2">
-        <v>25021</v>
+        <v>780</v>
       </c>
       <c r="ED2">
-        <v>20144</v>
+        <v>576</v>
       </c>
       <c r="EE2">
-        <v>21666</v>
+        <v>513</v>
       </c>
       <c r="EF2">
-        <v>20330</v>
+        <v>363</v>
       </c>
       <c r="EG2">
-        <v>18432</v>
+        <v>256</v>
       </c>
       <c r="EH2">
-        <v>17207</v>
+        <v>204</v>
       </c>
       <c r="EI2">
-        <v>13623</v>
+        <v>128</v>
       </c>
       <c r="EJ2">
-        <v>14568</v>
+        <v>89</v>
       </c>
       <c r="EK2">
-        <v>13521</v>
+        <v>58</v>
       </c>
       <c r="EL2">
-        <v>12428</v>
+        <v>52</v>
       </c>
       <c r="EM2">
-        <v>11504</v>
+        <v>38</v>
       </c>
       <c r="EN2">
-        <v>9073</v>
+        <v>19</v>
       </c>
       <c r="EO2">
-        <v>9827</v>
+        <v>24</v>
       </c>
       <c r="EP2">
-        <v>9127</v>
+        <v>16</v>
       </c>
       <c r="EQ2">
-        <v>8007</v>
+        <v>5</v>
       </c>
       <c r="ER2">
-        <v>7537</v>
+        <v>5</v>
       </c>
       <c r="ES2">
-        <v>6830</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>5343</v>
+        <v>3</v>
       </c>
       <c r="EU2">
-        <v>5636</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>5134</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>4668</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>3276</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>3455</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>3124</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>2985</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>2662</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>2087</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>2228</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>1933</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>1684</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>1534</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>1432</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>1125</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="GT2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/glb_total_co2_hist.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/glb_total_co2_hist.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="tot_c_hist" sheetId="1" r:id="rId1"/>
+    <sheet name="tot_co2_hist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>17</v>
@@ -1617,415 +1617,415 @@
         <v>27</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N2">
-        <v>1578</v>
+        <v>1605</v>
       </c>
       <c r="O2">
-        <v>6880</v>
+        <v>6707</v>
       </c>
       <c r="P2">
-        <v>26703</v>
+        <v>24040</v>
       </c>
       <c r="Q2">
-        <v>71996</v>
+        <v>83721</v>
       </c>
       <c r="R2">
-        <v>194110</v>
+        <v>197920</v>
       </c>
       <c r="S2">
-        <v>330333</v>
+        <v>329782</v>
       </c>
       <c r="T2">
-        <v>683278</v>
+        <v>670822</v>
       </c>
       <c r="U2">
-        <v>584998</v>
+        <v>566388</v>
       </c>
       <c r="V2">
-        <v>632617</v>
+        <v>681906</v>
       </c>
       <c r="W2">
-        <v>520968</v>
+        <v>502067</v>
       </c>
       <c r="X2">
-        <v>589150</v>
+        <v>580795</v>
       </c>
       <c r="Y2">
-        <v>562858</v>
+        <v>558301</v>
       </c>
       <c r="Z2">
-        <v>570742</v>
+        <v>565934</v>
       </c>
       <c r="AA2">
-        <v>478181</v>
+        <v>520330</v>
       </c>
       <c r="AB2">
-        <v>628178</v>
+        <v>620310</v>
       </c>
       <c r="AC2">
-        <v>617007</v>
+        <v>602223</v>
       </c>
       <c r="AD2">
-        <v>737470</v>
+        <v>726874</v>
       </c>
       <c r="AE2">
-        <v>802470</v>
+        <v>780596</v>
       </c>
       <c r="AF2">
-        <v>918438</v>
+        <v>875704</v>
       </c>
       <c r="AG2">
-        <v>913594</v>
+        <v>1035368</v>
       </c>
       <c r="AH2">
-        <v>1269198</v>
+        <v>1254865</v>
       </c>
       <c r="AI2">
-        <v>1426118</v>
+        <v>1394379</v>
       </c>
       <c r="AJ2">
-        <v>1811421</v>
+        <v>1773189</v>
       </c>
       <c r="AK2">
-        <v>1772527</v>
+        <v>1718216</v>
       </c>
       <c r="AL2">
-        <v>1730436</v>
+        <v>1965757</v>
       </c>
       <c r="AM2">
-        <v>2339554</v>
+        <v>2324388</v>
       </c>
       <c r="AN2">
-        <v>2618571</v>
+        <v>2536766</v>
       </c>
       <c r="AO2">
-        <v>2694682</v>
+        <v>2609083</v>
       </c>
       <c r="AP2">
-        <v>2791946</v>
+        <v>2736295</v>
       </c>
       <c r="AQ2">
-        <v>2424522</v>
+        <v>2728257</v>
       </c>
       <c r="AR2">
-        <v>3088485</v>
+        <v>3026526</v>
       </c>
       <c r="AS2">
-        <v>2966232</v>
+        <v>2941449</v>
       </c>
       <c r="AT2">
-        <v>2938927</v>
+        <v>2829510</v>
       </c>
       <c r="AU2">
-        <v>3371277</v>
+        <v>3253643</v>
       </c>
       <c r="AV2">
-        <v>3327712</v>
+        <v>3201100</v>
       </c>
       <c r="AW2">
-        <v>2463675</v>
+        <v>2908431</v>
       </c>
       <c r="AX2">
-        <v>2813935</v>
+        <v>2755344</v>
       </c>
       <c r="AY2">
-        <v>2763363</v>
+        <v>2627556</v>
       </c>
       <c r="AZ2">
-        <v>2851502</v>
+        <v>2789685</v>
       </c>
       <c r="BA2">
-        <v>2681036</v>
+        <v>2597067</v>
       </c>
       <c r="BB2">
-        <v>2129474</v>
+        <v>2463421</v>
       </c>
       <c r="BC2">
-        <v>2374464</v>
+        <v>2286219</v>
       </c>
       <c r="BD2">
-        <v>2279663</v>
+        <v>2209485</v>
       </c>
       <c r="BE2">
-        <v>2223279</v>
+        <v>2152019</v>
       </c>
       <c r="BF2">
-        <v>2076020</v>
+        <v>2023890</v>
       </c>
       <c r="BG2">
-        <v>1758896</v>
+        <v>1987335</v>
       </c>
       <c r="BH2">
-        <v>2013030</v>
+        <v>1973836</v>
       </c>
       <c r="BI2">
-        <v>2334690</v>
+        <v>2277615</v>
       </c>
       <c r="BJ2">
-        <v>2233886</v>
+        <v>2173150</v>
       </c>
       <c r="BK2">
-        <v>2475050</v>
+        <v>2410007</v>
       </c>
       <c r="BL2">
-        <v>2200346</v>
+        <v>2119212</v>
       </c>
       <c r="BM2">
-        <v>1827090</v>
+        <v>2088742</v>
       </c>
       <c r="BN2">
-        <v>2174057</v>
+        <v>2134846</v>
       </c>
       <c r="BO2">
-        <v>2153377</v>
+        <v>2086935</v>
       </c>
       <c r="BP2">
-        <v>1930145</v>
+        <v>1886528</v>
       </c>
       <c r="BQ2">
-        <v>2060998</v>
+        <v>1994147</v>
       </c>
       <c r="BR2">
-        <v>1970821</v>
+        <v>2298845</v>
       </c>
       <c r="BS2">
-        <v>2413835</v>
+        <v>2373184</v>
       </c>
       <c r="BT2">
-        <v>2406049</v>
+        <v>2252170</v>
       </c>
       <c r="BU2">
-        <v>2403755</v>
+        <v>2347090</v>
       </c>
       <c r="BV2">
-        <v>2431340</v>
+        <v>2364229</v>
       </c>
       <c r="BW2">
-        <v>1991308</v>
+        <v>2271242</v>
       </c>
       <c r="BX2">
-        <v>2697327</v>
+        <v>2710381</v>
       </c>
       <c r="BY2">
-        <v>2734742</v>
+        <v>2590410</v>
       </c>
       <c r="BZ2">
-        <v>2517036</v>
+        <v>2454336</v>
       </c>
       <c r="CA2">
-        <v>2551846</v>
+        <v>2505217</v>
       </c>
       <c r="CB2">
-        <v>2633450</v>
+        <v>2408268</v>
       </c>
       <c r="CC2">
-        <v>1988280</v>
+        <v>2410351</v>
       </c>
       <c r="CD2">
-        <v>2300265</v>
+        <v>2235857</v>
       </c>
       <c r="CE2">
-        <v>2297758</v>
+        <v>2215073</v>
       </c>
       <c r="CF2">
-        <v>2192592</v>
+        <v>2168207</v>
       </c>
       <c r="CG2">
-        <v>2154272</v>
+        <v>2098984</v>
       </c>
       <c r="CH2">
-        <v>1736120</v>
+        <v>1949830</v>
       </c>
       <c r="CI2">
-        <v>2492546</v>
+        <v>2443591</v>
       </c>
       <c r="CJ2">
-        <v>2193562</v>
+        <v>2115200</v>
       </c>
       <c r="CK2">
-        <v>1959028</v>
+        <v>1938512</v>
       </c>
       <c r="CL2">
-        <v>1780209</v>
+        <v>1742123</v>
       </c>
       <c r="CM2">
-        <v>1390697</v>
+        <v>1577263</v>
       </c>
       <c r="CN2">
-        <v>1591125</v>
+        <v>1525663</v>
       </c>
       <c r="CO2">
-        <v>1450694</v>
+        <v>1405365</v>
       </c>
       <c r="CP2">
-        <v>1359593</v>
+        <v>1328098</v>
       </c>
       <c r="CQ2">
-        <v>1226650</v>
+        <v>1200262</v>
       </c>
       <c r="CR2">
-        <v>1125656</v>
+        <v>1100109</v>
       </c>
       <c r="CS2">
-        <v>864247</v>
+        <v>998085</v>
       </c>
       <c r="CT2">
-        <v>935010</v>
+        <v>890817</v>
       </c>
       <c r="CU2">
-        <v>884203</v>
+        <v>847545</v>
       </c>
       <c r="CV2">
-        <v>739642</v>
+        <v>726816</v>
       </c>
       <c r="CW2">
-        <v>627534</v>
+        <v>615967</v>
       </c>
       <c r="CX2">
-        <v>467958</v>
+        <v>525429</v>
       </c>
       <c r="CY2">
-        <v>472500</v>
+        <v>461469</v>
       </c>
       <c r="CZ2">
-        <v>398683</v>
+        <v>376736</v>
       </c>
       <c r="DA2">
-        <v>336519</v>
+        <v>334423</v>
       </c>
       <c r="DB2">
-        <v>283106</v>
+        <v>277732</v>
       </c>
       <c r="DC2">
-        <v>200837</v>
+        <v>226476</v>
       </c>
       <c r="DD2">
-        <v>196548</v>
+        <v>187602</v>
       </c>
       <c r="DE2">
-        <v>160723</v>
+        <v>155765</v>
       </c>
       <c r="DF2">
-        <v>128836</v>
+        <v>123013</v>
       </c>
       <c r="DG2">
-        <v>103263</v>
+        <v>101457</v>
       </c>
       <c r="DH2">
-        <v>71910</v>
+        <v>81331</v>
       </c>
       <c r="DI2">
-        <v>67478</v>
+        <v>64180</v>
       </c>
       <c r="DJ2">
-        <v>53824</v>
+        <v>51568</v>
       </c>
       <c r="DK2">
-        <v>43843</v>
+        <v>41880</v>
       </c>
       <c r="DL2">
-        <v>34840</v>
+        <v>34422</v>
       </c>
       <c r="DM2">
-        <v>29025</v>
+        <v>28555</v>
       </c>
       <c r="DN2">
-        <v>20845</v>
+        <v>23798</v>
       </c>
       <c r="DO2">
-        <v>23374</v>
+        <v>23003</v>
       </c>
       <c r="DP2">
-        <v>19317</v>
+        <v>17646</v>
       </c>
       <c r="DQ2">
-        <v>17798</v>
+        <v>17645</v>
       </c>
       <c r="DR2">
-        <v>16072</v>
+        <v>15936</v>
       </c>
       <c r="DS2">
-        <v>12212</v>
+        <v>14117</v>
       </c>
       <c r="DT2">
-        <v>12579</v>
+        <v>12156</v>
       </c>
       <c r="DU2">
-        <v>10352</v>
+        <v>9127</v>
       </c>
       <c r="DV2">
-        <v>7824</v>
+        <v>7734</v>
       </c>
       <c r="DW2">
-        <v>5863</v>
+        <v>5819</v>
       </c>
       <c r="DX2">
-        <v>3643</v>
+        <v>4130</v>
       </c>
       <c r="DY2">
-        <v>3163</v>
+        <v>2965</v>
       </c>
       <c r="DZ2">
-        <v>2184</v>
+        <v>1991</v>
       </c>
       <c r="EA2">
-        <v>1525</v>
+        <v>1477</v>
       </c>
       <c r="EB2">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="EC2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="ED2">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="EE2">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="EF2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="EG2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="EH2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="EI2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="EJ2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="EK2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="EL2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="EM2">
         <v>38</v>
       </c>
       <c r="EN2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="EO2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EP2">
         <v>16</v>
       </c>
       <c r="EQ2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="ER2">
         <v>5</v>

--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/glb_total_co2_hist.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/glb_total_co2_hist.xlsx
@@ -1590,607 +1590,607 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>661</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2140</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3337</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>5723</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8517</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>10702</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>15820</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>22233</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>30687</v>
       </c>
       <c r="K2">
-        <v>39</v>
+        <v>42541</v>
       </c>
       <c r="L2">
-        <v>126</v>
+        <v>55649</v>
       </c>
       <c r="M2">
-        <v>363</v>
+        <v>76273</v>
       </c>
       <c r="N2">
-        <v>1605</v>
+        <v>151733</v>
       </c>
       <c r="O2">
-        <v>6707</v>
+        <v>127896</v>
       </c>
       <c r="P2">
-        <v>24040</v>
+        <v>157137</v>
       </c>
       <c r="Q2">
-        <v>83721</v>
+        <v>195449</v>
       </c>
       <c r="R2">
-        <v>197920</v>
+        <v>257812</v>
       </c>
       <c r="S2">
-        <v>329782</v>
+        <v>356581</v>
       </c>
       <c r="T2">
-        <v>670822</v>
+        <v>508233</v>
       </c>
       <c r="U2">
-        <v>566388</v>
+        <v>707297</v>
       </c>
       <c r="V2">
-        <v>681906</v>
+        <v>938579</v>
       </c>
       <c r="W2">
-        <v>502067</v>
+        <v>1139930</v>
       </c>
       <c r="X2">
-        <v>580795</v>
+        <v>1366899</v>
       </c>
       <c r="Y2">
-        <v>558301</v>
+        <v>1524078</v>
       </c>
       <c r="Z2">
-        <v>565934</v>
+        <v>1633357</v>
       </c>
       <c r="AA2">
-        <v>520330</v>
+        <v>1689706</v>
       </c>
       <c r="AB2">
-        <v>620310</v>
+        <v>1844974</v>
       </c>
       <c r="AC2">
-        <v>602223</v>
+        <v>1975917</v>
       </c>
       <c r="AD2">
-        <v>726874</v>
+        <v>2119633</v>
       </c>
       <c r="AE2">
-        <v>780596</v>
+        <v>2206942</v>
       </c>
       <c r="AF2">
-        <v>875704</v>
+        <v>2364166</v>
       </c>
       <c r="AG2">
-        <v>1035368</v>
+        <v>2512808</v>
       </c>
       <c r="AH2">
-        <v>1254865</v>
+        <v>2684473</v>
       </c>
       <c r="AI2">
-        <v>1394379</v>
+        <v>2895342</v>
       </c>
       <c r="AJ2">
-        <v>1773189</v>
+        <v>2999543</v>
       </c>
       <c r="AK2">
-        <v>1718216</v>
+        <v>3125049</v>
       </c>
       <c r="AL2">
-        <v>1965757</v>
+        <v>3196796</v>
       </c>
       <c r="AM2">
-        <v>2324388</v>
+        <v>3320747</v>
       </c>
       <c r="AN2">
-        <v>2536766</v>
+        <v>3388568</v>
       </c>
       <c r="AO2">
-        <v>2609083</v>
+        <v>3447901</v>
       </c>
       <c r="AP2">
-        <v>2736295</v>
+        <v>3588002</v>
       </c>
       <c r="AQ2">
-        <v>2728257</v>
+        <v>3601426</v>
       </c>
       <c r="AR2">
-        <v>3026526</v>
+        <v>3790700</v>
       </c>
       <c r="AS2">
-        <v>2941449</v>
+        <v>3760475</v>
       </c>
       <c r="AT2">
-        <v>2829510</v>
+        <v>3694164</v>
       </c>
       <c r="AU2">
-        <v>3253643</v>
+        <v>3666361</v>
       </c>
       <c r="AV2">
-        <v>3201100</v>
+        <v>3765477</v>
       </c>
       <c r="AW2">
-        <v>2908431</v>
+        <v>3767108</v>
       </c>
       <c r="AX2">
-        <v>2755344</v>
+        <v>3645788</v>
       </c>
       <c r="AY2">
-        <v>2627556</v>
+        <v>3592660</v>
       </c>
       <c r="AZ2">
-        <v>2789685</v>
+        <v>3581067</v>
       </c>
       <c r="BA2">
-        <v>2597067</v>
+        <v>3508222</v>
       </c>
       <c r="BB2">
-        <v>2463421</v>
+        <v>3455867</v>
       </c>
       <c r="BC2">
-        <v>2286219</v>
+        <v>3380126</v>
       </c>
       <c r="BD2">
-        <v>2209485</v>
+        <v>3303955</v>
       </c>
       <c r="BE2">
-        <v>2152019</v>
+        <v>3289578</v>
       </c>
       <c r="BF2">
-        <v>2023890</v>
+        <v>3235876</v>
       </c>
       <c r="BG2">
-        <v>1987335</v>
+        <v>3251153</v>
       </c>
       <c r="BH2">
-        <v>1973836</v>
+        <v>3119123</v>
       </c>
       <c r="BI2">
-        <v>2277615</v>
+        <v>2993888</v>
       </c>
       <c r="BJ2">
-        <v>2173150</v>
+        <v>2937421</v>
       </c>
       <c r="BK2">
-        <v>2410007</v>
+        <v>2837157</v>
       </c>
       <c r="BL2">
-        <v>2119212</v>
+        <v>2723636</v>
       </c>
       <c r="BM2">
-        <v>2088742</v>
+        <v>2574827</v>
       </c>
       <c r="BN2">
-        <v>2134846</v>
+        <v>2447311</v>
       </c>
       <c r="BO2">
-        <v>2086935</v>
+        <v>2310835</v>
       </c>
       <c r="BP2">
-        <v>1886528</v>
+        <v>2231073</v>
       </c>
       <c r="BQ2">
-        <v>1994147</v>
+        <v>2061303</v>
       </c>
       <c r="BR2">
-        <v>2298845</v>
+        <v>1897723</v>
       </c>
       <c r="BS2">
-        <v>2373184</v>
+        <v>1780843</v>
       </c>
       <c r="BT2">
-        <v>2252170</v>
+        <v>1615674</v>
       </c>
       <c r="BU2">
-        <v>2347090</v>
+        <v>1521424</v>
       </c>
       <c r="BV2">
-        <v>2364229</v>
+        <v>1357158</v>
       </c>
       <c r="BW2">
-        <v>2271242</v>
+        <v>1242304</v>
       </c>
       <c r="BX2">
-        <v>2710381</v>
+        <v>1111733</v>
       </c>
       <c r="BY2">
-        <v>2590410</v>
+        <v>982979</v>
       </c>
       <c r="BZ2">
-        <v>2454336</v>
+        <v>876933</v>
       </c>
       <c r="CA2">
-        <v>2505217</v>
+        <v>782545</v>
       </c>
       <c r="CB2">
-        <v>2408268</v>
+        <v>686198</v>
       </c>
       <c r="CC2">
-        <v>2410351</v>
+        <v>599442</v>
       </c>
       <c r="CD2">
-        <v>2235857</v>
+        <v>527305</v>
       </c>
       <c r="CE2">
-        <v>2215073</v>
+        <v>449804</v>
       </c>
       <c r="CF2">
-        <v>2168207</v>
+        <v>403699</v>
       </c>
       <c r="CG2">
-        <v>2098984</v>
+        <v>347151</v>
       </c>
       <c r="CH2">
-        <v>1949830</v>
+        <v>297938</v>
       </c>
       <c r="CI2">
-        <v>2443591</v>
+        <v>257251</v>
       </c>
       <c r="CJ2">
-        <v>2115200</v>
+        <v>216050</v>
       </c>
       <c r="CK2">
-        <v>1938512</v>
+        <v>191711</v>
       </c>
       <c r="CL2">
-        <v>1742123</v>
+        <v>163032</v>
       </c>
       <c r="CM2">
-        <v>1577263</v>
+        <v>140658</v>
       </c>
       <c r="CN2">
-        <v>1525663</v>
+        <v>119269</v>
       </c>
       <c r="CO2">
-        <v>1405365</v>
+        <v>101192</v>
       </c>
       <c r="CP2">
-        <v>1328098</v>
+        <v>87403</v>
       </c>
       <c r="CQ2">
-        <v>1200262</v>
+        <v>75103</v>
       </c>
       <c r="CR2">
-        <v>1100109</v>
+        <v>63530</v>
       </c>
       <c r="CS2">
-        <v>998085</v>
+        <v>54398</v>
       </c>
       <c r="CT2">
-        <v>890817</v>
+        <v>46075</v>
       </c>
       <c r="CU2">
-        <v>847545</v>
+        <v>39242</v>
       </c>
       <c r="CV2">
-        <v>726816</v>
+        <v>34745</v>
       </c>
       <c r="CW2">
-        <v>615967</v>
+        <v>30526</v>
       </c>
       <c r="CX2">
-        <v>525429</v>
+        <v>25447</v>
       </c>
       <c r="CY2">
-        <v>461469</v>
+        <v>21761</v>
       </c>
       <c r="CZ2">
-        <v>376736</v>
+        <v>18598</v>
       </c>
       <c r="DA2">
-        <v>334423</v>
+        <v>16141</v>
       </c>
       <c r="DB2">
-        <v>277732</v>
+        <v>13704</v>
       </c>
       <c r="DC2">
-        <v>226476</v>
+        <v>12017</v>
       </c>
       <c r="DD2">
-        <v>187602</v>
+        <v>10355</v>
       </c>
       <c r="DE2">
-        <v>155765</v>
+        <v>8833</v>
       </c>
       <c r="DF2">
-        <v>123013</v>
+        <v>8022</v>
       </c>
       <c r="DG2">
-        <v>101457</v>
+        <v>6729</v>
       </c>
       <c r="DH2">
-        <v>81331</v>
+        <v>5679</v>
       </c>
       <c r="DI2">
-        <v>64180</v>
+        <v>5176</v>
       </c>
       <c r="DJ2">
-        <v>51568</v>
+        <v>4373</v>
       </c>
       <c r="DK2">
-        <v>41880</v>
+        <v>3966</v>
       </c>
       <c r="DL2">
-        <v>34422</v>
+        <v>3330</v>
       </c>
       <c r="DM2">
-        <v>28555</v>
+        <v>2924</v>
       </c>
       <c r="DN2">
-        <v>23798</v>
+        <v>2469</v>
       </c>
       <c r="DO2">
-        <v>23003</v>
+        <v>2253</v>
       </c>
       <c r="DP2">
-        <v>17646</v>
+        <v>1885</v>
       </c>
       <c r="DQ2">
-        <v>17645</v>
+        <v>1608</v>
       </c>
       <c r="DR2">
-        <v>15936</v>
+        <v>1441</v>
       </c>
       <c r="DS2">
-        <v>14117</v>
+        <v>1226</v>
       </c>
       <c r="DT2">
-        <v>12156</v>
+        <v>1058</v>
       </c>
       <c r="DU2">
-        <v>9127</v>
+        <v>903</v>
       </c>
       <c r="DV2">
-        <v>7734</v>
+        <v>827</v>
       </c>
       <c r="DW2">
-        <v>5819</v>
+        <v>691</v>
       </c>
       <c r="DX2">
-        <v>4130</v>
+        <v>636</v>
       </c>
       <c r="DY2">
-        <v>2965</v>
+        <v>535</v>
       </c>
       <c r="DZ2">
-        <v>1991</v>
+        <v>492</v>
       </c>
       <c r="EA2">
-        <v>1477</v>
+        <v>362</v>
       </c>
       <c r="EB2">
-        <v>1137</v>
+        <v>349</v>
       </c>
       <c r="EC2">
-        <v>776</v>
+        <v>309</v>
       </c>
       <c r="ED2">
-        <v>646</v>
+        <v>252</v>
       </c>
       <c r="EE2">
-        <v>477</v>
+        <v>222</v>
       </c>
       <c r="EF2">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="EG2">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="EH2">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="EI2">
         <v>141</v>
       </c>
       <c r="EJ2">
+        <v>121</v>
+      </c>
+      <c r="EK2">
+        <v>93</v>
+      </c>
+      <c r="EL2">
+        <v>90</v>
+      </c>
+      <c r="EM2">
+        <v>85</v>
+      </c>
+      <c r="EN2">
         <v>83</v>
       </c>
-      <c r="EK2">
-        <v>56</v>
-      </c>
-      <c r="EL2">
-        <v>51</v>
-      </c>
-      <c r="EM2">
-        <v>38</v>
-      </c>
-      <c r="EN2">
-        <v>21</v>
-      </c>
       <c r="EO2">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="EP2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="EQ2">
+        <v>57</v>
+      </c>
+      <c r="ER2">
+        <v>41</v>
+      </c>
+      <c r="ES2">
+        <v>24</v>
+      </c>
+      <c r="ET2">
+        <v>35</v>
+      </c>
+      <c r="EU2">
+        <v>26</v>
+      </c>
+      <c r="EV2">
+        <v>30</v>
+      </c>
+      <c r="EW2">
+        <v>25</v>
+      </c>
+      <c r="EX2">
+        <v>24</v>
+      </c>
+      <c r="EY2">
+        <v>19</v>
+      </c>
+      <c r="EZ2">
+        <v>9</v>
+      </c>
+      <c r="FA2">
+        <v>15</v>
+      </c>
+      <c r="FB2">
+        <v>11</v>
+      </c>
+      <c r="FC2">
+        <v>17</v>
+      </c>
+      <c r="FD2">
+        <v>7</v>
+      </c>
+      <c r="FE2">
+        <v>11</v>
+      </c>
+      <c r="FF2">
+        <v>8</v>
+      </c>
+      <c r="FG2">
+        <v>12</v>
+      </c>
+      <c r="FH2">
+        <v>8</v>
+      </c>
+      <c r="FI2">
+        <v>10</v>
+      </c>
+      <c r="FJ2">
+        <v>6</v>
+      </c>
+      <c r="FK2">
+        <v>10</v>
+      </c>
+      <c r="FL2">
+        <v>10</v>
+      </c>
+      <c r="FM2">
+        <v>5</v>
+      </c>
+      <c r="FN2">
+        <v>6</v>
+      </c>
+      <c r="FO2">
+        <v>9</v>
+      </c>
+      <c r="FP2">
+        <v>8</v>
+      </c>
+      <c r="FQ2">
+        <v>7</v>
+      </c>
+      <c r="FR2">
+        <v>2</v>
+      </c>
+      <c r="FS2">
         <v>4</v>
       </c>
-      <c r="ER2">
+      <c r="FT2">
+        <v>3</v>
+      </c>
+      <c r="FU2">
+        <v>10</v>
+      </c>
+      <c r="FV2">
+        <v>8</v>
+      </c>
+      <c r="FW2">
+        <v>10</v>
+      </c>
+      <c r="FX2">
+        <v>3</v>
+      </c>
+      <c r="FY2">
+        <v>6</v>
+      </c>
+      <c r="FZ2">
         <v>5</v>
       </c>
-      <c r="ES2">
-        <v>0</v>
-      </c>
-      <c r="ET2">
-        <v>3</v>
-      </c>
-      <c r="EU2">
-        <v>1</v>
-      </c>
-      <c r="EV2">
-        <v>0</v>
-      </c>
-      <c r="EW2">
-        <v>0</v>
-      </c>
-      <c r="EX2">
-        <v>0</v>
-      </c>
-      <c r="EY2">
-        <v>0</v>
-      </c>
-      <c r="EZ2">
-        <v>0</v>
-      </c>
-      <c r="FA2">
-        <v>0</v>
-      </c>
-      <c r="FB2">
-        <v>0</v>
-      </c>
-      <c r="FC2">
-        <v>0</v>
-      </c>
-      <c r="FD2">
-        <v>0</v>
-      </c>
-      <c r="FE2">
-        <v>0</v>
-      </c>
-      <c r="FF2">
-        <v>0</v>
-      </c>
-      <c r="FG2">
-        <v>0</v>
-      </c>
-      <c r="FH2">
-        <v>0</v>
-      </c>
-      <c r="FI2">
-        <v>0</v>
-      </c>
-      <c r="FJ2">
-        <v>0</v>
-      </c>
-      <c r="FK2">
-        <v>0</v>
-      </c>
-      <c r="FL2">
-        <v>0</v>
-      </c>
-      <c r="FM2">
-        <v>0</v>
-      </c>
-      <c r="FN2">
-        <v>0</v>
-      </c>
-      <c r="FO2">
-        <v>0</v>
-      </c>
-      <c r="FP2">
-        <v>0</v>
-      </c>
-      <c r="FQ2">
-        <v>0</v>
-      </c>
-      <c r="FR2">
-        <v>0</v>
-      </c>
-      <c r="FS2">
-        <v>0</v>
-      </c>
-      <c r="FT2">
-        <v>0</v>
-      </c>
-      <c r="FU2">
-        <v>0</v>
-      </c>
-      <c r="FV2">
-        <v>0</v>
-      </c>
-      <c r="FW2">
-        <v>0</v>
-      </c>
-      <c r="FX2">
-        <v>0</v>
-      </c>
-      <c r="FY2">
-        <v>0</v>
-      </c>
-      <c r="FZ2">
-        <v>0</v>
-      </c>
       <c r="GA2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GB2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GC2">
         <v>0</v>
       </c>
       <c r="GD2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GE2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GF2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GG2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GH2">
         <v>0</v>
       </c>
       <c r="GI2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GJ2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GK2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM2">
         <v>0</v>
       </c>
       <c r="GN2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GO2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GP2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>0</v>
       </c>
       <c r="GT2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
